--- a/bimetallics/fe2s2_sharma/34__3d4sd_2p3p/tpsci_01.xlsx
+++ b/bimetallics/fe2s2_sharma/34__3d4sd_2p3p/tpsci_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmayhall/code/FermiCG-data/bimetallics/fe2s2_sharma/34__3d4sd_2p3p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA0FE8C-F002-3143-A4D3-5CD49F280773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375AD62-03E6-B749-8527-BD250B6BBD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{47E1590A-DBCB-6240-B749-9F1759EEA5AE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{47E1590A-DBCB-6240-B749-9F1759EEA5AE}"/>
   </bookViews>
   <sheets>
     <sheet name="m050" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -8782,13 +8782,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C675C-AB15-F643-9EF3-5DE7C5BE31AA}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -10022,8 +10023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC8F4FA-95EA-5649-B8CB-32F8EE08E78A}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
